--- a/Dissertação/Dados_Dissetação.xlsx
+++ b/Dissertação/Dados_Dissetação.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliente\Documents\PROJETOS\Human-conflict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliente\Documents\PROJETOS\Human-conflict\Dissertação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="matriz" sheetId="3" r:id="rId1"/>
@@ -2686,7 +2686,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3192,7 +3191,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10559,11 +10557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="AI180" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="12" topLeftCell="I145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AK183" sqref="AK183"/>
+      <selection pane="bottomRight" activeCell="M199" sqref="M199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10574,6 +10572,8 @@
     <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="57.140625" customWidth="1"/>
     <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -50998,9 +50998,9 @@
   </sheetPr>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertação/Dados_Dissetação.xlsx
+++ b/Dissertação/Dados_Dissetação.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="matriz" sheetId="3" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="Planilha3" sheetId="17" r:id="rId3"/>
     <sheet name="testes" sheetId="6" r:id="rId4"/>
     <sheet name="Central " sheetId="12" r:id="rId5"/>
-    <sheet name="Norte do Chile" sheetId="14" r:id="rId6"/>
-    <sheet name="North Peru" sheetId="21" r:id="rId7"/>
-    <sheet name="South Peru" sheetId="22" r:id="rId8"/>
+    <sheet name="Planilha1" sheetId="23" r:id="rId6"/>
+    <sheet name="Norte do Chile" sheetId="14" r:id="rId7"/>
+    <sheet name="North Peru" sheetId="21" r:id="rId8"/>
+    <sheet name="South Peru" sheetId="22" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Central '!$A$1:$AN$51</definedName>
@@ -27,7 +28,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -338,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="695">
   <si>
     <t>Date</t>
   </si>
@@ -2538,6 +2540,9 @@
   <si>
     <t>7733608.00 m S</t>
   </si>
+  <si>
+    <t>Soma de Total Affected</t>
+  </si>
 </sst>
 </file>
 
@@ -2587,7 +2592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2618,6 +2623,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2632,7 +2643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2648,6 +2659,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3979,6 +3992,122 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="cliente" refreshedDate="44375.805506249999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:Y33" sheet="Norte do Chile"/>
+  </cacheSource>
+  <cacheFields count="25">
+    <cacheField name="Time Per" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Site" numFmtId="0">
+      <sharedItems count="25">
+        <s v="Morro de Arica de Uhle"/>
+        <s v="Acha 2_3_ Morro1_ Morro 1_6_ MCEeras Enco_ Playa Miller 8"/>
+        <s v="Tiviliche_2"/>
+        <s v="Caleta Huelen 42"/>
+        <s v="Acha_3"/>
+        <s v="Patapatane"/>
+        <s v="Azapa"/>
+        <s v="AZ_146"/>
+        <s v="Solcor 3"/>
+        <s v="Toconao Oriente"/>
+        <s v="Larache, Solcor Plaza, and Tchecar"/>
+        <s v="Coyo Oriente"/>
+        <s v="Quitor 6 Tardío, Yaye 3 and Yaye 4"/>
+        <s v="Coyo 3"/>
+        <s v="Pica 8"/>
+        <s v="Yaye, Quitor 6, Catarpe 4-5"/>
+        <s v="Quitor 6"/>
+        <s v="Catarpe 2"/>
+        <s v="Yaye_ Quitor 6"/>
+        <s v="Catarpe 4_5"/>
+        <s v="Azapa (RDP)"/>
+        <s v="Catarpe 1 and 5"/>
+        <s v="Catarpe 1-2"/>
+        <s v="Catarpe"/>
+        <s v="Catarpe 1_2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Altitude" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="36" maxValue="3240"/>
+    </cacheField>
+    <cacheField name="Longitude" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Latitude" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Culture or site" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Total Affected" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="51"/>
+    </cacheField>
+    <cacheField name="Total Observed" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="275"/>
+    </cacheField>
+    <cacheField name="fr" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="AM_PM" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Masc_Afetado" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="27"/>
+    </cacheField>
+    <cacheField name="Masc_Observado" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="160"/>
+    </cacheField>
+    <cacheField name="fr2" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="AM_PM2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Tipo de enterramento" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fem_afetado" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="24"/>
+    </cacheField>
+    <cacheField name="Fem_Observado" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="101"/>
+    </cacheField>
+    <cacheField name="%" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="0.36923076923076925"/>
+    </cacheField>
+    <cacheField name="AM_PM3" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Tipo de enterramento2" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Unsexed Affected" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Unsexed Observed" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+    </cacheField>
+    <cacheField name="%2" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="0.25"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="209">
   <r>
@@ -10041,6 +10170,875 @@
     <n v="0"/>
     <s v="Tung et al__ 2019"/>
     <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
+  <r>
+    <s v="ARC"/>
+    <s v="3200_1250 BCE"/>
+    <s v="North Chile"/>
+    <x v="0"/>
+    <n v="150"/>
+    <s v="360360.00 m E"/>
+    <s v="7955939.00 m S"/>
+    <s v="Chinchorro"/>
+    <n v="19"/>
+    <n v="83"/>
+    <n v="0.2289156626506024"/>
+    <m/>
+    <n v="12"/>
+    <n v="41"/>
+    <n v="0.29268292682926828"/>
+    <m/>
+    <m/>
+    <n v="7"/>
+    <n v="53"/>
+    <n v="0.13207547169811321"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ARC"/>
+    <s v="2600_1800 BCE"/>
+    <s v="North Chile"/>
+    <x v="1"/>
+    <n v="150"/>
+    <s v="360360.00 m E"/>
+    <s v="7955939.00 m S"/>
+    <s v="Chinchorro"/>
+    <n v="17"/>
+    <n v="69"/>
+    <n v="0.24637681159420291"/>
+    <m/>
+    <n v="13"/>
+    <n v="38"/>
+    <n v="0.34210526315789475"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="31"/>
+    <n v="0.12903225806451613"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ARC"/>
+    <s v="2400_1900 BCE"/>
+    <s v="North Chile"/>
+    <x v="2"/>
+    <n v="995"/>
+    <s v="397883.00 m E"/>
+    <s v="7837924.00 m S"/>
+    <s v="Tiviliche"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ARC"/>
+    <s v="3800_2000 BCE"/>
+    <s v="North Chile"/>
+    <x v="3"/>
+    <n v="36"/>
+    <s v="391421.00 m E"/>
+    <s v="7630523.00 m S"/>
+    <s v="Chinchorro_related?"/>
+    <n v="1"/>
+    <n v="27"/>
+    <n v="3.7037037037037035E-2"/>
+    <m/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="9.0909090909090912E-2"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ARC"/>
+    <s v="7500_7200 BCE"/>
+    <s v="North Chile"/>
+    <x v="4"/>
+    <n v="150"/>
+    <s v="360360.00 m E"/>
+    <s v="7955939.00 m S"/>
+    <s v="Acha_3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0.5"/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0.5"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ARC"/>
+    <s v="5000_4540 BCE"/>
+    <s v="North Chile"/>
+    <x v="5"/>
+    <n v="3240"/>
+    <s v="430325.00 m E"/>
+    <s v="7996152.00 m S"/>
+    <s v="Patapatane"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="F"/>
+    <s v="1000_800 BCE"/>
+    <s v="North Chile"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Azapa"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Late Formative"/>
+    <s v="550 BCE _ CE 250 (2500_1700 BP)"/>
+    <s v="North Chile"/>
+    <x v="7"/>
+    <n v="268"/>
+    <s v="375393.00 m E"/>
+    <s v="7951291.00 m S"/>
+    <s v="Juan in the CAZ_146_ San erro Moreno area"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="EIP"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="8"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Late Formative-Middle Period"/>
+    <n v="5"/>
+    <n v="50"/>
+    <n v="0.1"/>
+    <m/>
+    <s v=" -"/>
+    <s v=" - "/>
+    <s v=" - "/>
+    <s v=" "/>
+    <m/>
+    <s v=" - "/>
+    <s v=" - "/>
+    <s v=" -"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v="  -"/>
+  </r>
+  <r>
+    <s v="EIP"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="8"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Pre-Tiwanaku"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="3.3333333333333333E-2"/>
+    <m/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="13"/>
+    <n v="7.6923076923076927E-2"/>
+    <m/>
+    <m/>
+    <s v=" - "/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="EIP"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="8"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Pre-Tiwanaku"/>
+    <n v="3"/>
+    <n v="33"/>
+    <n v="9.0909090909090912E-2"/>
+    <m/>
+    <s v=" - "/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <m/>
+    <m/>
+    <s v=" - "/>
+    <s v=" - "/>
+    <s v=" - "/>
+    <m/>
+    <m/>
+    <s v=" - "/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="EIP"/>
+    <s v="CE 350"/>
+    <s v="North Chile"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Cabuza"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0.25"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="8.3333333333333329E-2"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="EIP"/>
+    <s v="CE 500"/>
+    <s v="North Chile"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Tiwanaku"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="EIP"/>
+    <s v="200 BCE _ 600 CE"/>
+    <s v="North Chile"/>
+    <x v="9"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Tiwanaku_ affiliated?"/>
+    <n v="5"/>
+    <n v="99"/>
+    <n v="5.0505050505050504E-2"/>
+    <m/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="1.6666666666666666E-2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="39"/>
+    <n v="0.10256410256410256"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="MH"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="10"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Tiwanaku"/>
+    <n v="44"/>
+    <n v="257"/>
+    <n v="0.17120622568093385"/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="MH"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="11"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Tiwanaku"/>
+    <n v="25"/>
+    <n v="226"/>
+    <n v="0.11061946902654868"/>
+    <m/>
+    <n v="15"/>
+    <n v="125"/>
+    <n v="0.12"/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <n v="101"/>
+    <n v="9.9009900990099015E-2"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="MH"/>
+    <s v="CE 600_950"/>
+    <s v="North Chile"/>
+    <x v="8"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Tiwanaku_ affiliated?"/>
+    <n v="10"/>
+    <n v="92"/>
+    <n v="0.10869565217391304"/>
+    <m/>
+    <n v="6"/>
+    <n v="49"/>
+    <n v="0.12244897959183673"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="43"/>
+    <n v="9.3023255813953487E-2"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="MH"/>
+    <s v="CE 500_1000"/>
+    <s v="North Chile"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Maitas"/>
+    <n v="10"/>
+    <n v="68"/>
+    <n v="0.14705882352941177"/>
+    <m/>
+    <n v="3"/>
+    <n v="25"/>
+    <n v="0.12"/>
+    <m/>
+    <m/>
+    <n v="7"/>
+    <n v="43"/>
+    <n v="0.16279069767441862"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="MH_LIP"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="12"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Middle Period-Beginnings of LIP"/>
+    <n v="17"/>
+    <n v="93"/>
+    <n v="0.18279569892473119"/>
+    <m/>
+    <s v=" - "/>
+    <s v=" - "/>
+    <s v=" -"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="MH_LIP"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="13"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Post-Tiwanaku"/>
+    <n v="7"/>
+    <n v="46"/>
+    <n v="0.15217391304347827"/>
+    <m/>
+    <n v="6"/>
+    <n v="24"/>
+    <n v="0.25"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="22"/>
+    <n v="4.5454545454545456E-2"/>
+    <m/>
+    <m/>
+    <s v=" - "/>
+    <s v=" - "/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="MH_LIP"/>
+    <s v="CE 850_1200"/>
+    <s v="North Chile"/>
+    <x v="13"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Tiwanaku_ affiliated?"/>
+    <n v="16"/>
+    <n v="44"/>
+    <n v="0.36363636363636365"/>
+    <m/>
+    <n v="9"/>
+    <n v="24"/>
+    <n v="0.375"/>
+    <m/>
+    <m/>
+    <n v="7"/>
+    <n v="20"/>
+    <n v="0.35"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="MH_LIP"/>
+    <s v="CE 900_1280"/>
+    <s v="North Chile"/>
+    <x v="14"/>
+    <n v="1231"/>
+    <s v="463186.00 m E"/>
+    <s v="7733608.00 m S"/>
+    <s v="Tarapacá phase"/>
+    <n v="6"/>
+    <n v="68"/>
+    <n v="8.8235294117647065E-2"/>
+    <m/>
+    <n v="4"/>
+    <n v="29"/>
+    <n v="0.13793103448275862"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="38"/>
+    <n v="5.2631578947368418E-2"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="LIP"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="15"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Post-Tiwanaku"/>
+    <n v="51"/>
+    <n v="187"/>
+    <n v="0.27272727272727271"/>
+    <m/>
+    <n v="27"/>
+    <n v="104"/>
+    <n v="0.25961538461538464"/>
+    <m/>
+    <m/>
+    <n v="24"/>
+    <n v="79"/>
+    <n v="0.30379746835443039"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="LIP"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="16"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Post-Tiwanaku"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="0.2"/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="LIP"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="17"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Post-Tiwanaku"/>
+    <n v="12"/>
+    <n v="161"/>
+    <n v="7.4534161490683232E-2"/>
+    <m/>
+    <n v="8"/>
+    <n v="105"/>
+    <n v="7.6190476190476197E-2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="56"/>
+    <n v="7.1428571428571425E-2"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="LIP"/>
+    <s v="CE 950_1400"/>
+    <s v="North Chile"/>
+    <x v="18"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Atacama"/>
+    <n v="46"/>
+    <n v="151"/>
+    <n v="0.30463576158940397"/>
+    <m/>
+    <n v="22"/>
+    <n v="83"/>
+    <n v="0.26506024096385544"/>
+    <m/>
+    <m/>
+    <n v="24"/>
+    <n v="65"/>
+    <n v="0.36923076923076925"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="LIP"/>
+    <s v="CE 1300_1400"/>
+    <s v="North Chile"/>
+    <x v="19"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Atacama"/>
+    <n v="3"/>
+    <n v="36"/>
+    <n v="8.3333333333333329E-2"/>
+    <m/>
+    <n v="3"/>
+    <n v="21"/>
+    <n v="0.14285714285714285"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="LIP"/>
+    <s v="CE 1100_1470"/>
+    <s v="North Chile"/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Regional"/>
+    <n v="2"/>
+    <n v="13"/>
+    <n v="0.15384615384615385"/>
+    <m/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0.16666666666666666"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="0.14285714285714285"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="LH"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="21"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Inca"/>
+    <n v="6"/>
+    <n v="48"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="5"/>
+    <n v="29"/>
+    <n v="0.17241379310344829"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="19"/>
+    <n v="5.2631578947368418E-2"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="LH"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="22"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Inca"/>
+    <n v="2"/>
+    <n v="210"/>
+    <n v="9.5238095238095247E-3"/>
+    <m/>
+    <n v="5"/>
+    <n v="143"/>
+    <n v="3.4965034965034968E-2"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="63"/>
+    <n v="3.1746031746031744E-2"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="LH"/>
+    <m/>
+    <s v="North Chile"/>
+    <x v="23"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Inca"/>
+    <n v="11"/>
+    <n v="275"/>
+    <n v="0.04"/>
+    <m/>
+    <n v="8"/>
+    <n v="160"/>
+    <n v="0.05"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="77"/>
+    <n v="2.5974025974025976E-2"/>
+    <m/>
+    <m/>
+    <s v=" -"/>
+    <s v=" -"/>
+    <s v=" -"/>
+  </r>
+  <r>
+    <s v="LH"/>
+    <s v="CE 1400_1532"/>
+    <s v="North Chile"/>
+    <x v="24"/>
+    <n v="2363"/>
+    <s v="575922.00 m E"/>
+    <s v="7452929.00 m S"/>
+    <s v="Atacama"/>
+    <n v="8"/>
+    <n v="210"/>
+    <n v="3.8095238095238099E-2"/>
+    <m/>
+    <n v="5"/>
+    <n v="143"/>
+    <n v="3.4965034965034968E-2"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="63"/>
+    <n v="3.1746031746031744E-2"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0.25"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -10282,6 +11280,172 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Contagem de Site" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="26">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Contagem de Site" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total Affected" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -50992,6 +52156,323 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4</v>
+      </c>
+      <c r="C24" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="11">
+        <v>32</v>
+      </c>
+      <c r="C29" s="11">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -51000,7 +52481,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51758,1649 +53239,1326 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>2363</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="7">
         <v>50</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="7">
         <v>0.1</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="M10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y10" s="3" t="s">
+      <c r="T10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AA10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AC10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG10" s="7" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="13">
         <v>2363</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="13">
         <v>30</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="13">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
         <v>17</v>
       </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
         <v>1</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="13">
         <v>13</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="13">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="X11" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB11" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AC11" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AG11" s="13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="13">
         <v>2363</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="13">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="13">
         <v>33</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="13">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="N12" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="R12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA12" s="3" t="s">
+      <c r="X12" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AB12" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AG12" s="13" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="13">
         <v>2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="13">
         <v>16</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="13">
         <v>0.125</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
+      <c r="M13" s="13">
         <v>1</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="13">
         <v>4</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="13">
         <v>0.25</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3">
+      <c r="R13" s="13">
         <v>1</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="13">
         <v>12</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="12" t="s">
+      <c r="W13" s="13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
         <v>7</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="12" t="s">
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="13">
         <v>2363</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="13">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="13">
         <v>99</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="13">
         <v>5.0505050505050504E-2</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
+      <c r="M15" s="13">
         <v>1</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="13">
         <v>60</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="13">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3">
+      <c r="R15" s="13">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="13">
         <v>39</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="13">
         <v>0.10256410256410256</v>
       </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3" t="s">
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>2363</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>44</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="7">
         <v>257</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="7">
         <v>0.17120622568093385</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3" t="s">
+      <c r="M16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG16" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="17" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="13">
         <v>2363</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="13">
         <v>25</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="13">
         <v>226</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="13">
         <v>0.11061946902654868</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3">
+      <c r="M17" s="13">
         <v>15</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="13">
         <v>125</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="13">
         <v>0.12</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3">
+      <c r="R17" s="13">
         <v>10</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="13">
         <v>101</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="13">
         <v>9.9009900990099015E-2</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3" t="s">
+      <c r="W17" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG17" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="13">
         <v>2363</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="13">
         <v>10</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="13">
         <v>92</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="13">
         <v>0.10869565217391304</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3">
+      <c r="M18" s="13">
         <v>6</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="13">
         <v>49</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="13">
         <v>0.12244897959183673</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3">
+      <c r="R18" s="13">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="13">
         <v>43</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="13">
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3" t="s">
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="13">
         <v>10</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="13">
         <v>68</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="13">
         <v>0.14705882352941177</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3">
+      <c r="M19" s="13">
         <v>3</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="13">
         <v>25</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="13">
         <v>0.12</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3">
+      <c r="R19" s="13">
         <v>7</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="13">
         <v>43</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="13">
         <v>0.16279069767441862</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="3">
+      <c r="W19" s="13">
+        <v>0</v>
+      </c>
+      <c r="X19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
         <v>55</v>
       </c>
-      <c r="AC19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="12" t="s">
+      <c r="AC19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>2363</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="7">
         <v>17</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="7">
         <v>93</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="7">
         <v>0.18279569892473119</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB20" s="3" t="s">
+      <c r="O20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB20" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3" t="s">
+      <c r="AC20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG20" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="21" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="13">
         <v>2363</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="13">
         <v>7</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="13">
         <v>46</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="13">
         <v>0.15217391304347827</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3">
+      <c r="M21" s="13">
         <v>6</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="13">
         <v>24</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="13">
         <v>0.25</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3">
+      <c r="R21" s="13">
         <v>1</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="13">
         <v>22</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="13">
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3" t="s">
+      <c r="W21" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3" t="s">
+      <c r="Y21" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA21" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB21" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC21" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG21" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="13">
         <v>2363</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="13">
         <v>16</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="13">
         <v>44</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="13">
         <v>0.36363636363636365</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3">
+      <c r="M22" s="13">
         <v>9</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="13">
         <v>24</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="13">
         <v>0.375</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3">
+      <c r="R22" s="13">
         <v>7</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="13">
         <v>20</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="13">
         <v>0.35</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3" t="s">
+      <c r="W22" s="13">
+        <v>0</v>
+      </c>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="23" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="13">
         <v>1231</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="13">
         <v>6</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="13">
         <v>68</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="13">
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3">
+      <c r="M23" s="13">
         <v>4</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="13">
         <v>29</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="13">
         <v>0.13793103448275862</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3">
+      <c r="R23" s="13">
         <v>2</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="13">
         <v>38</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="13">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+      <c r="X23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
         <v>29</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3" t="s">
+      <c r="AC23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="24" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>2363</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="7">
         <v>51</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="7">
         <v>187</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="7">
         <v>0.27272727272727271</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3">
+      <c r="M24" s="7">
         <v>27</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="7">
         <v>104</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="7">
         <v>0.25961538461538464</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3">
+      <c r="R24" s="7">
         <v>24</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="7">
         <v>79</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="7">
         <v>0.30379746835443039</v>
       </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3">
+      <c r="W24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA24" s="7">
         <v>1</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="7">
         <v>21</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="7">
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3" t="s">
+      <c r="AG24" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    </row>
+    <row r="25" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="13">
         <v>2363</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="13">
         <v>6</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="13">
         <v>30</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="13">
         <v>0.2</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3" t="s">
+      <c r="M25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG25" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="13">
         <v>2363</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="13">
         <v>12</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="13">
         <v>161</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="13">
         <v>7.4534161490683232E-2</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3">
+      <c r="M26" s="13">
         <v>8</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="13">
         <v>105</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="13">
         <v>7.6190476190476197E-2</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3">
+      <c r="R26" s="13">
         <v>4</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="13">
         <v>56</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="13">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3" t="s">
+      <c r="W26" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA26" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB26" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG26" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    </row>
+    <row r="27" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="13">
         <v>2363</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="13">
         <v>46</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="13">
         <v>151</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="13">
         <v>0.30463576158940397</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3">
+      <c r="M27" s="13">
         <v>22</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="13">
         <v>83</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="13">
         <v>0.26506024096385544</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3">
+      <c r="R27" s="13">
         <v>24</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="13">
         <v>65</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="13">
         <v>0.36923076923076925</v>
       </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+      <c r="X27" s="13">
         <v>3</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3" t="s">
+      <c r="Y27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="28" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="13">
         <v>2363</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="13">
         <v>3</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="13">
         <v>36</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3">
+      <c r="M28" s="13">
         <v>3</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="13">
         <v>21</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="13">
         <v>0.14285714285714285</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
         <v>14</v>
       </c>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3">
+      <c r="T28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="13">
+        <v>0</v>
+      </c>
+      <c r="X28" s="13">
         <v>1</v>
       </c>
-      <c r="Y28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3" t="s">
+      <c r="Y28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    </row>
+    <row r="29" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="13">
         <v>2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="13">
         <v>13</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="13">
         <v>0.15384615384615385</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3">
+      <c r="M29" s="13">
         <v>1</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="13">
         <v>6</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3">
+      <c r="R29" s="13">
         <v>1</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="13">
         <v>7</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="13">
         <v>0.14285714285714285</v>
       </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="12" t="s">
+      <c r="W29" s="13">
+        <v>0</v>
+      </c>
+      <c r="X29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -53758,7 +54916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -56837,7 +57995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
